--- a/resultados/cotacoes acao.xlsx
+++ b/resultados/cotacoes acao.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
         <v>86.65000152587891</v>
       </c>
       <c r="C2">
-        <v>22.1299991607666</v>
+        <v>21.72413063049316</v>
       </c>
       <c r="D2">
         <v>17.46167945861816</v>
@@ -512,7 +512,7 @@
         <v>86.20999908447266</v>
       </c>
       <c r="C3">
-        <v>22.27000045776367</v>
+        <v>21.86156272888184</v>
       </c>
       <c r="D3">
         <v>17.6693229675293</v>
@@ -553,7 +553,7 @@
         <v>88.23999786376953</v>
       </c>
       <c r="C4">
-        <v>22.69000053405762</v>
+        <v>22.27386093139648</v>
       </c>
       <c r="D4">
         <v>17.85718727111816</v>
@@ -594,7 +594,7 @@
         <v>89.90000152587891</v>
       </c>
       <c r="C5">
-        <v>22.75</v>
+        <v>22.33275985717773</v>
       </c>
       <c r="D5">
         <v>17.69898414611816</v>
@@ -635,7 +635,7 @@
         <v>88.45999908447266</v>
       </c>
       <c r="C6">
-        <v>22.20000076293945</v>
+        <v>21.79284858703613</v>
       </c>
       <c r="D6">
         <v>16.6805534362793</v>
@@ -676,7 +676,7 @@
         <v>88.55000305175781</v>
       </c>
       <c r="C7">
-        <v>22.23999977111816</v>
+        <v>21.83211326599121</v>
       </c>
       <c r="D7">
         <v>16.32459449768066</v>
@@ -717,7 +717,7 @@
         <v>90.62000274658203</v>
       </c>
       <c r="C8">
-        <v>22.22999954223633</v>
+        <v>21.82229614257812</v>
       </c>
       <c r="D8">
         <v>16.36414527893066</v>
@@ -758,7 +758,7 @@
         <v>87.5</v>
       </c>
       <c r="C9">
-        <v>21.94000053405762</v>
+        <v>21.53761672973633</v>
       </c>
       <c r="D9">
         <v>15.50391578674316</v>
@@ -799,7 +799,7 @@
         <v>84.54000091552734</v>
       </c>
       <c r="C10">
-        <v>21.79000091552734</v>
+        <v>21.39036750793457</v>
       </c>
       <c r="D10">
         <v>15.76099586486816</v>
@@ -840,7 +840,7 @@
         <v>84.55999755859375</v>
       </c>
       <c r="C11">
-        <v>21.36000061035156</v>
+        <v>20.96825408935547</v>
       </c>
       <c r="D11">
         <v>15.33582496643066</v>
@@ -881,7 +881,7 @@
         <v>81.87999725341797</v>
       </c>
       <c r="C12">
-        <v>21.34000015258789</v>
+        <v>20.9486198425293</v>
       </c>
       <c r="D12">
         <v>14.35694313049316</v>
@@ -922,7 +922,7 @@
         <v>81.72000122070312</v>
       </c>
       <c r="C13">
-        <v>20.92000007629395</v>
+        <v>20.53632164001465</v>
       </c>
       <c r="D13">
         <v>13.85266971588135</v>
@@ -963,7 +963,7 @@
         <v>81.66999816894531</v>
       </c>
       <c r="C14">
-        <v>20.64999961853027</v>
+        <v>20.27127456665039</v>
       </c>
       <c r="D14">
         <v>14.11963748931885</v>
@@ -1004,7 +1004,7 @@
         <v>77.41000366210938</v>
       </c>
       <c r="C15">
-        <v>20.36000061035156</v>
+        <v>19.98659324645996</v>
       </c>
       <c r="D15">
         <v>13.84278202056885</v>
@@ -1045,7 +1045,7 @@
         <v>75.5</v>
       </c>
       <c r="C16">
-        <v>20.20000076293945</v>
+        <v>19.82952880859375</v>
       </c>
       <c r="D16">
         <v>14.02076053619385</v>
@@ -1086,7 +1086,7 @@
         <v>76</v>
       </c>
       <c r="C17">
-        <v>20.10000038146973</v>
+        <v>19.73136138916016</v>
       </c>
       <c r="D17">
         <v>13.91199493408203</v>
@@ -1127,7 +1127,7 @@
         <v>75.34999847412109</v>
       </c>
       <c r="C18">
-        <v>20.02000045776367</v>
+        <v>19.65282821655273</v>
       </c>
       <c r="D18">
         <v>13.78345489501953</v>
@@ -1168,7 +1168,7 @@
         <v>72.59999847412109</v>
       </c>
       <c r="C19">
-        <v>19.52000045776367</v>
+        <v>19.1619987487793</v>
       </c>
       <c r="D19">
         <v>13.81311893463135</v>
@@ -1209,7 +1209,7 @@
         <v>74.62000274658203</v>
       </c>
       <c r="C20">
-        <v>19.79999923706055</v>
+        <v>19.43686294555664</v>
       </c>
       <c r="D20">
         <v>13.50659942626953</v>
@@ -1250,7 +1250,7 @@
         <v>78.05000305175781</v>
       </c>
       <c r="C21">
-        <v>20.14999961853027</v>
+        <v>19.78044319152832</v>
       </c>
       <c r="D21">
         <v>13.55603885650635</v>
@@ -1291,7 +1291,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="C22">
-        <v>20.25</v>
+        <v>19.87861061096191</v>
       </c>
       <c r="D22">
         <v>13.52637577056885</v>
@@ -1332,7 +1332,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="C23">
-        <v>20.15999984741211</v>
+        <v>19.79026031494141</v>
       </c>
       <c r="D23">
         <v>13.32862091064453</v>
@@ -1373,7 +1373,7 @@
         <v>76.55999755859375</v>
       </c>
       <c r="C24">
-        <v>20.20000076293945</v>
+        <v>19.82952880859375</v>
       </c>
       <c r="D24">
         <v>12.90345001220703</v>
@@ -1414,7 +1414,7 @@
         <v>75.09999847412109</v>
       </c>
       <c r="C25">
-        <v>20.19000053405762</v>
+        <v>19.81971168518066</v>
       </c>
       <c r="D25">
         <v>13.19999980926514</v>
@@ -1455,7 +1455,7 @@
         <v>74.66999816894531</v>
       </c>
       <c r="C26">
-        <v>20.19000053405762</v>
+        <v>19.81971168518066</v>
       </c>
       <c r="D26">
         <v>12.89999961853027</v>
@@ -1496,7 +1496,7 @@
         <v>74.30000305175781</v>
       </c>
       <c r="C27">
-        <v>19.79999923706055</v>
+        <v>19.43686294555664</v>
       </c>
       <c r="D27">
         <v>12.6899995803833</v>
@@ -1537,7 +1537,7 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>20.01000022888184</v>
+        <v>19.64301300048828</v>
       </c>
       <c r="D28">
         <v>12.85000038146973</v>
@@ -1578,7 +1578,7 @@
         <v>77.18000030517578</v>
       </c>
       <c r="C29">
-        <v>19.89999961853027</v>
+        <v>19.5350284576416</v>
       </c>
       <c r="D29">
         <v>13.14000034332275</v>
@@ -1619,7 +1619,7 @@
         <v>75.40000152587891</v>
       </c>
       <c r="C30">
-        <v>19.70999908447266</v>
+        <v>19.34851264953613</v>
       </c>
       <c r="D30">
         <v>12.88000011444092</v>
@@ -1660,7 +1660,7 @@
         <v>72.83000183105469</v>
       </c>
       <c r="C31">
-        <v>19.51000022888184</v>
+        <v>19.15218162536621</v>
       </c>
       <c r="D31">
         <v>12.01000022888184</v>
@@ -1701,7 +1701,7 @@
         <v>73.05000305175781</v>
       </c>
       <c r="C32">
-        <v>19.6200008392334</v>
+        <v>19.26016616821289</v>
       </c>
       <c r="D32">
         <v>11.89000034332275</v>
@@ -1742,7 +1742,7 @@
         <v>72.80000305175781</v>
       </c>
       <c r="C33">
-        <v>19.04000091552734</v>
+        <v>18.69080352783203</v>
       </c>
       <c r="D33">
         <v>11.89000034332275</v>
@@ -1783,7 +1783,7 @@
         <v>67.94999694824219</v>
       </c>
       <c r="C34">
-        <v>18.79000091552734</v>
+        <v>18.44538879394531</v>
       </c>
       <c r="D34">
         <v>12.19999980926514</v>
@@ -1824,7 +1824,7 @@
         <v>68.37000274658203</v>
       </c>
       <c r="C35">
-        <v>18.5</v>
+        <v>18.16070556640625</v>
       </c>
       <c r="D35">
         <v>12.22999954223633</v>
@@ -1865,7 +1865,7 @@
         <v>68.73000335693359</v>
       </c>
       <c r="C36">
-        <v>18.42000007629395</v>
+        <v>18.08217239379883</v>
       </c>
       <c r="D36">
         <v>12.11999988555908</v>
@@ -1906,7 +1906,7 @@
         <v>68.87999725341797</v>
       </c>
       <c r="C37">
-        <v>18.79999923706055</v>
+        <v>18.45520210266113</v>
       </c>
       <c r="D37">
         <v>12.27000045776367</v>
@@ -1947,7 +1947,7 @@
         <v>67.38999938964844</v>
       </c>
       <c r="C38">
-        <v>19.06999969482422</v>
+        <v>18.72025108337402</v>
       </c>
       <c r="D38">
         <v>12.5</v>
@@ -1988,7 +1988,7 @@
         <v>68.56999969482422</v>
       </c>
       <c r="C39">
-        <v>18.45999908447266</v>
+        <v>18.12143898010254</v>
       </c>
       <c r="D39">
         <v>12.93000030517578</v>
@@ -2029,7 +2029,7 @@
         <v>69.20999908447266</v>
       </c>
       <c r="C40">
-        <v>18.89999961853027</v>
+        <v>18.55336952209473</v>
       </c>
       <c r="D40">
         <v>12.77000045776367</v>
@@ -2070,7 +2070,7 @@
         <v>70.48999786376953</v>
       </c>
       <c r="C41">
-        <v>18.42000007629395</v>
+        <v>18.08217239379883</v>
       </c>
       <c r="D41">
         <v>12.77999973297119</v>
@@ -2111,7 +2111,7 @@
         <v>70.36000061035156</v>
       </c>
       <c r="C42">
-        <v>18.45000076293945</v>
+        <v>18.11162376403809</v>
       </c>
       <c r="D42">
         <v>12.39999961853027</v>
@@ -2152,7 +2152,7 @@
         <v>70.51999664306641</v>
       </c>
       <c r="C43">
-        <v>19.45999908447266</v>
+        <v>19.10309791564941</v>
       </c>
       <c r="D43">
         <v>12.77000045776367</v>
@@ -2193,7 +2193,7 @@
         <v>70.69000244140625</v>
       </c>
       <c r="C44">
-        <v>19.22999954223633</v>
+        <v>18.87731742858887</v>
       </c>
       <c r="D44">
         <v>12.89999961853027</v>
@@ -2234,7 +2234,7 @@
         <v>69.75</v>
       </c>
       <c r="C45">
-        <v>19.93000030517578</v>
+        <v>19.56447982788086</v>
       </c>
       <c r="D45">
         <v>12.69999980926514</v>
@@ -2265,6 +2265,85 @@
       </c>
       <c r="M45">
         <v>35.97000122070312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B46">
+        <v>68.08000183105469</v>
+      </c>
+      <c r="C46">
+        <v>19.40741348266602</v>
+      </c>
+      <c r="D46">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="E46">
+        <v>11.5</v>
+      </c>
+      <c r="F46">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="G46">
+        <v>9.159999847412109</v>
+      </c>
+      <c r="H46">
+        <v>4.889999866485596</v>
+      </c>
+      <c r="I46">
+        <v>17.13999938964844</v>
+      </c>
+      <c r="J46">
+        <v>13.4399995803833</v>
+      </c>
+      <c r="K46">
+        <v>22.69000053405762</v>
+      </c>
+      <c r="L46">
+        <v>2.720000028610229</v>
+      </c>
+      <c r="M46">
+        <v>35.68000030517578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B47">
+        <v>69.15000152587891</v>
+      </c>
+      <c r="D47">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="E47">
+        <v>11.55000019073486</v>
+      </c>
+      <c r="F47">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="G47">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="H47">
+        <v>4.920000076293945</v>
+      </c>
+      <c r="I47">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="J47">
+        <v>13.27999973297119</v>
+      </c>
+      <c r="K47">
+        <v>23.1200008392334</v>
+      </c>
+      <c r="L47">
+        <v>2.680000066757202</v>
+      </c>
+      <c r="M47">
+        <v>36.33000183105469</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/cotacoes acao.xlsx
+++ b/resultados/cotacoes acao.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,1885 +465,2705 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>44711</v>
+        <v>44683</v>
       </c>
       <c r="B2">
-        <v>86.65000152587891</v>
+        <v>82.91999816894531</v>
       </c>
       <c r="C2">
-        <v>21.72413063049316</v>
+        <v>20.95999908447266</v>
       </c>
       <c r="D2">
-        <v>17.46167945861816</v>
+        <v>16.93000030517578</v>
       </c>
       <c r="E2">
-        <v>11.64000034332275</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="F2">
-        <v>49.31000137329102</v>
+        <v>43.86999893188477</v>
       </c>
       <c r="G2">
-        <v>9.409999847412109</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="H2">
-        <v>5.28000020980835</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="I2">
-        <v>19.21999931335449</v>
+        <v>20.44000053405762</v>
       </c>
       <c r="J2">
-        <v>16.54000091552734</v>
+        <v>15.77999973297119</v>
       </c>
       <c r="K2">
-        <v>22.42000007629395</v>
+        <v>20.54000091552734</v>
       </c>
       <c r="L2">
-        <v>3.839999914169312</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="M2">
-        <v>35.80258941650391</v>
+        <v>32.97999954223633</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>44712</v>
+        <v>44684</v>
       </c>
       <c r="B3">
-        <v>86.20999908447266</v>
+        <v>82.5</v>
       </c>
       <c r="C3">
-        <v>21.86156272888184</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="D3">
-        <v>17.6693229675293</v>
+        <v>16.1299991607666</v>
       </c>
       <c r="E3">
-        <v>11.52999973297119</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="F3">
-        <v>48.75</v>
+        <v>43.56000137329102</v>
       </c>
       <c r="G3">
-        <v>9.600000381469727</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="H3">
-        <v>5.139999866485596</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="I3">
-        <v>19.30999946594238</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="J3">
-        <v>16.18000030517578</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="K3">
-        <v>23.10000038146973</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="L3">
-        <v>3.720000028610229</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="M3">
-        <v>36.3485107421875</v>
+        <v>33.65999984741211</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>44713</v>
+        <v>44685</v>
       </c>
       <c r="B4">
-        <v>88.23999786376953</v>
+        <v>81.80999755859375</v>
       </c>
       <c r="C4">
-        <v>22.27386093139648</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="D4">
-        <v>17.85718727111816</v>
+        <v>16.96999931335449</v>
       </c>
       <c r="E4">
-        <v>11.35999965667725</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F4">
-        <v>48.77000045776367</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="G4">
-        <v>9.75</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="H4">
-        <v>5.130000114440918</v>
+        <v>4.980000019073486</v>
       </c>
       <c r="I4">
-        <v>18.65999984741211</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="J4">
-        <v>16.45000076293945</v>
+        <v>16.5</v>
       </c>
       <c r="K4">
-        <v>23.46999931335449</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="L4">
-        <v>3.710000038146973</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="M4">
-        <v>36.41799163818359</v>
+        <v>34.63999938964844</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>44714</v>
+        <v>44686</v>
       </c>
       <c r="B5">
-        <v>89.90000152587891</v>
+        <v>80.33000183105469</v>
       </c>
       <c r="C5">
-        <v>22.33275985717773</v>
+        <v>22.5</v>
       </c>
       <c r="D5">
-        <v>17.69898414611816</v>
+        <v>16.09000015258789</v>
       </c>
       <c r="E5">
-        <v>11.47999954223633</v>
+        <v>11.18000030517578</v>
       </c>
       <c r="F5">
-        <v>48.56000137329102</v>
+        <v>44.38000106811523</v>
       </c>
       <c r="G5">
-        <v>9.399999618530273</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="H5">
-        <v>5.179999828338623</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="I5">
-        <v>19.11000061035156</v>
+        <v>19.17000007629395</v>
       </c>
       <c r="J5">
-        <v>16.64999961853027</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="K5">
-        <v>24.36000061035156</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="L5">
-        <v>3.799999952316284</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="M5">
-        <v>36.44777297973633</v>
+        <v>33.7400016784668</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>44715</v>
+        <v>44687</v>
       </c>
       <c r="B6">
-        <v>88.45999908447266</v>
+        <v>79.76000213623047</v>
       </c>
       <c r="C6">
-        <v>21.79284858703613</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="D6">
-        <v>16.6805534362793</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="E6">
-        <v>11.32999992370605</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="F6">
-        <v>48.59999847412109</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>9.359999656677246</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="H6">
-        <v>5.179999828338623</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="I6">
-        <v>18.92000007629395</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="J6">
-        <v>15.72000026702881</v>
+        <v>15.11999988555908</v>
       </c>
       <c r="K6">
-        <v>24.3799991607666</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="L6">
-        <v>3.589999914169312</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="M6">
-        <v>35.94155120849609</v>
+        <v>33.84999847412109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>44718</v>
+        <v>44690</v>
       </c>
       <c r="B7">
-        <v>88.55000305175781</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="C7">
-        <v>21.83211326599121</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="D7">
-        <v>16.32459449768066</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="E7">
-        <v>10.98999977111816</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="F7">
-        <v>46.86000061035156</v>
+        <v>40.16999816894531</v>
       </c>
       <c r="G7">
-        <v>8.960000038146973</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="H7">
-        <v>5.090000152587891</v>
+        <v>4.78000020980835</v>
       </c>
       <c r="I7">
-        <v>18.60000038146973</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="J7">
-        <v>15.17000007629395</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="K7">
-        <v>23.82999992370605</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="L7">
-        <v>3.400000095367432</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="M7">
-        <v>35.49488830566406</v>
+        <v>33.93999862670898</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>44719</v>
+        <v>44691</v>
       </c>
       <c r="B8">
-        <v>90.62000274658203</v>
+        <v>75.54000091552734</v>
       </c>
       <c r="C8">
-        <v>21.82229614257812</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>16.36414527893066</v>
+        <v>15.72000026702881</v>
       </c>
       <c r="E8">
-        <v>10.76000022888184</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="F8">
-        <v>46.86000061035156</v>
+        <v>40.45999908447266</v>
       </c>
       <c r="G8">
-        <v>8.920000076293945</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="I8">
-        <v>18.45999908447266</v>
+        <v>18.8700008392334</v>
       </c>
       <c r="J8">
-        <v>15.18000030517578</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="K8">
-        <v>23.21999931335449</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="L8">
-        <v>3.289999961853027</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="M8">
-        <v>35.24674224853516</v>
+        <v>33.54999923706055</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>44720</v>
+        <v>44692</v>
       </c>
       <c r="B9">
-        <v>87.5</v>
+        <v>78.69000244140625</v>
       </c>
       <c r="C9">
-        <v>21.53761672973633</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="D9">
-        <v>15.50391578674316</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="E9">
-        <v>10.67000007629395</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F9">
-        <v>46.79000091552734</v>
+        <v>41.52000045776367</v>
       </c>
       <c r="G9">
-        <v>8.810000419616699</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="H9">
-        <v>4.900000095367432</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="I9">
-        <v>18.67000007629395</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="J9">
-        <v>14.92000007629395</v>
+        <v>14.25</v>
       </c>
       <c r="K9">
-        <v>23.43000030517578</v>
+        <v>19.38999938964844</v>
       </c>
       <c r="L9">
-        <v>3.220000028610229</v>
+        <v>3.930000066757202</v>
       </c>
       <c r="M9">
-        <v>34.92911148071289</v>
+        <v>34.29000091552734</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>44721</v>
+        <v>44693</v>
       </c>
       <c r="B10">
-        <v>84.54000091552734</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="C10">
-        <v>21.39036750793457</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="D10">
-        <v>15.76099586486816</v>
+        <v>15.97999954223633</v>
       </c>
       <c r="E10">
-        <v>10.55000019073486</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="F10">
-        <v>46.02000045776367</v>
+        <v>41.09000015258789</v>
       </c>
       <c r="G10">
-        <v>8.829999923706055</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="H10">
-        <v>4.980000019073486</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="I10">
-        <v>18.29000091552734</v>
+        <v>19.56999969482422</v>
       </c>
       <c r="J10">
-        <v>14.98999977111816</v>
+        <v>15.10999965667725</v>
       </c>
       <c r="K10">
-        <v>23.59000015258789</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="L10">
-        <v>3.009999990463257</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="M10">
-        <v>34.87948608398438</v>
+        <v>35.15999984741211</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>44722</v>
+        <v>44694</v>
       </c>
       <c r="B11">
-        <v>84.55999755859375</v>
+        <v>77.80999755859375</v>
       </c>
       <c r="C11">
-        <v>20.96825408935547</v>
+        <v>22.15999984741211</v>
       </c>
       <c r="D11">
-        <v>15.33582496643066</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="E11">
-        <v>10.27999973297119</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F11">
-        <v>44.56999969482422</v>
+        <v>42.27000045776367</v>
       </c>
       <c r="G11">
-        <v>8.630000114440918</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="H11">
-        <v>4.909999847412109</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="I11">
-        <v>17.90999984741211</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="J11">
-        <v>14.25</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="K11">
-        <v>23.07999992370605</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="L11">
-        <v>2.900000095367432</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="M11">
-        <v>34.29385757446289</v>
+        <v>35.11000061035156</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>44725</v>
+        <v>44697</v>
       </c>
       <c r="B12">
-        <v>81.87999725341797</v>
+        <v>80.13999938964844</v>
       </c>
       <c r="C12">
-        <v>20.9486198425293</v>
+        <v>21.82999992370605</v>
       </c>
       <c r="D12">
-        <v>14.35694313049316</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="E12">
-        <v>9.899999618530273</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="F12">
-        <v>42.65999984741211</v>
+        <v>43.02999877929688</v>
       </c>
       <c r="G12">
-        <v>8.479999542236328</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="H12">
-        <v>4.739999771118164</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="I12">
-        <v>17.27000045776367</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="J12">
-        <v>13.35000038146973</v>
+        <v>16.82999992370605</v>
       </c>
       <c r="K12">
-        <v>22.31999969482422</v>
+        <v>21.98999977111816</v>
       </c>
       <c r="L12">
-        <v>2.670000076293945</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="M12">
-        <v>33.50971603393555</v>
+        <v>35.11000061035156</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>44726</v>
+        <v>44698</v>
       </c>
       <c r="B13">
-        <v>81.72000122070312</v>
+        <v>79.80000305175781</v>
       </c>
       <c r="C13">
-        <v>20.53632164001465</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="D13">
-        <v>13.85266971588135</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="E13">
-        <v>9.779999732971191</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="F13">
-        <v>40.84000015258789</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="G13">
-        <v>8.369999885559082</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="H13">
-        <v>4.690000057220459</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="I13">
-        <v>17.05999946594238</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="J13">
-        <v>13.47000026702881</v>
+        <v>17.55999946594238</v>
       </c>
       <c r="K13">
-        <v>21.18000030517578</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="L13">
-        <v>2.539999961853027</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="M13">
-        <v>33.52000045776367</v>
+        <v>36.43000030517578</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>44727</v>
+        <v>44699</v>
       </c>
       <c r="B14">
-        <v>81.66999816894531</v>
+        <v>77.77999877929688</v>
       </c>
       <c r="C14">
-        <v>20.27127456665039</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>14.11963748931885</v>
+        <v>16.44000053405762</v>
       </c>
       <c r="E14">
-        <v>9.770000457763672</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="F14">
-        <v>40.61000061035156</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="G14">
-        <v>8.270000457763672</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>4.800000190734863</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="I14">
-        <v>17.54000091552734</v>
+        <v>19.35000038146973</v>
       </c>
       <c r="J14">
-        <v>13.73999977111816</v>
+        <v>17.57999992370605</v>
       </c>
       <c r="K14">
-        <v>21.75</v>
+        <v>22.14999961853027</v>
       </c>
       <c r="L14">
-        <v>2.549999952316284</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="M14">
-        <v>34.04999923706055</v>
+        <v>35.90999984741211</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>44729</v>
+        <v>44700</v>
       </c>
       <c r="B15">
-        <v>77.41000366210938</v>
+        <v>79.84999847412109</v>
       </c>
       <c r="C15">
-        <v>19.98659324645996</v>
+        <v>21.75</v>
       </c>
       <c r="D15">
-        <v>13.84278202056885</v>
+        <v>16.51000022888184</v>
       </c>
       <c r="E15">
-        <v>9.619999885559082</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F15">
-        <v>36.75</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="G15">
-        <v>8.560000419616699</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="H15">
-        <v>4.659999847412109</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="I15">
-        <v>17.15999984741211</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="J15">
-        <v>13.32999992370605</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="K15">
-        <v>21.45000076293945</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="L15">
-        <v>2.380000114440918</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="M15">
-        <v>34.13000106811523</v>
+        <v>35.70000076293945</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>44732</v>
+        <v>44701</v>
       </c>
       <c r="B16">
-        <v>75.5</v>
+        <v>81.26000213623047</v>
       </c>
       <c r="C16">
-        <v>19.82952880859375</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="D16">
-        <v>14.02076053619385</v>
+        <v>16.45999908447266</v>
       </c>
       <c r="E16">
-        <v>9.489999771118164</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="F16">
-        <v>35.70000076293945</v>
+        <v>42.56000137329102</v>
       </c>
       <c r="G16">
-        <v>8.409999847412109</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="H16">
-        <v>4.619999885559082</v>
+        <v>5.159999847412109</v>
       </c>
       <c r="I16">
-        <v>16.94000053405762</v>
+        <v>19.01000022888184</v>
       </c>
       <c r="J16">
-        <v>13.64000034332275</v>
+        <v>17.72999954223633</v>
       </c>
       <c r="K16">
-        <v>21.03000068664551</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="L16">
-        <v>2.579999923706055</v>
+        <v>3.670000076293945</v>
       </c>
       <c r="M16">
-        <v>34.38999938964844</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>44733</v>
+        <v>44704</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>82.91999816894531</v>
       </c>
       <c r="C17">
-        <v>19.73136138916016</v>
+        <v>22.22999954223633</v>
       </c>
       <c r="D17">
-        <v>13.91199493408203</v>
+        <v>17.07999992370605</v>
       </c>
       <c r="E17">
-        <v>9.359999656677246</v>
+        <v>10.77999973297119</v>
       </c>
       <c r="F17">
-        <v>36.40000152587891</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="G17">
-        <v>8.340000152587891</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="H17">
-        <v>4.570000171661377</v>
+        <v>5.25</v>
       </c>
       <c r="I17">
-        <v>16.78000068664551</v>
+        <v>19.46999931335449</v>
       </c>
       <c r="J17">
-        <v>13.17000007629395</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="K17">
-        <v>21.20000076293945</v>
+        <v>22.28000068664551</v>
       </c>
       <c r="L17">
-        <v>2.509999990463257</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="M17">
-        <v>32.97999954223633</v>
+        <v>38.56000137329102</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>44734</v>
+        <v>44705</v>
       </c>
       <c r="B18">
-        <v>75.34999847412109</v>
+        <v>84.04000091552734</v>
       </c>
       <c r="C18">
-        <v>19.65282821655273</v>
+        <v>22.09000015258789</v>
       </c>
       <c r="D18">
-        <v>13.78345489501953</v>
+        <v>16.63999938964844</v>
       </c>
       <c r="E18">
-        <v>9.739999771118164</v>
+        <v>10.52000045776367</v>
       </c>
       <c r="F18">
-        <v>33.97000122070312</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="G18">
-        <v>8.350000381469727</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="H18">
-        <v>4.550000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="I18">
-        <v>16.90999984741211</v>
+        <v>19.01000022888184</v>
       </c>
       <c r="J18">
-        <v>13.59000015258789</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="K18">
-        <v>21.29000091552734</v>
+        <v>21.63999938964844</v>
       </c>
       <c r="L18">
-        <v>2.440000057220459</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="M18">
-        <v>32.86000061035156</v>
+        <v>37.79999923706055</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>44735</v>
+        <v>44706</v>
       </c>
       <c r="B19">
-        <v>72.59999847412109</v>
+        <v>84.30000305175781</v>
       </c>
       <c r="C19">
-        <v>19.1619987487793</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="D19">
-        <v>13.81311893463135</v>
+        <v>17.01000022888184</v>
       </c>
       <c r="E19">
-        <v>9.890000343322754</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="F19">
-        <v>32.79999923706055</v>
+        <v>46.59999847412109</v>
       </c>
       <c r="G19">
-        <v>8.399999618530273</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="H19">
-        <v>4.599999904632568</v>
+        <v>5.170000076293945</v>
       </c>
       <c r="I19">
-        <v>16.79999923706055</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>13.75</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="K19">
-        <v>21.5</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="L19">
-        <v>2.549999952316284</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="M19">
-        <v>32.65000152587891</v>
+        <v>37.56999969482422</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>44736</v>
+        <v>44707</v>
       </c>
       <c r="B20">
-        <v>74.62000274658203</v>
+        <v>84.25</v>
       </c>
       <c r="C20">
-        <v>19.43686294555664</v>
+        <v>22.17000007629395</v>
       </c>
       <c r="D20">
-        <v>13.50659942626953</v>
+        <v>17.35000038146973</v>
       </c>
       <c r="E20">
-        <v>9.789999961853027</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F20">
-        <v>34.18999862670898</v>
+        <v>48.18000030517578</v>
       </c>
       <c r="G20">
-        <v>8.100000381469727</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="H20">
-        <v>4.599999904632568</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="I20">
-        <v>16.71999931335449</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="J20">
-        <v>14.23999977111816</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="K20">
-        <v>21.52000045776367</v>
+        <v>22.75</v>
       </c>
       <c r="L20">
-        <v>2.470000028610229</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="M20">
-        <v>32.45999908447266</v>
+        <v>37.45999908447266</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>44739</v>
+        <v>44708</v>
       </c>
       <c r="B21">
-        <v>78.05000305175781</v>
+        <v>85.72000122070312</v>
       </c>
       <c r="C21">
-        <v>19.78044319152832</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="D21">
-        <v>13.55603885650635</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="E21">
-        <v>9.670000076293945</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F21">
-        <v>36.38000106811523</v>
+        <v>48.95999908447266</v>
       </c>
       <c r="G21">
-        <v>8.140000343322754</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="H21">
-        <v>4.639999866485596</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="I21">
-        <v>16.76000022888184</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="J21">
-        <v>13.96000003814697</v>
+        <v>17.25</v>
       </c>
       <c r="K21">
-        <v>22.18000030517578</v>
+        <v>22.53000068664551</v>
       </c>
       <c r="L21">
-        <v>2.430000066757202</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>33.13000106811523</v>
+        <v>37.04999923706055</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>44740</v>
+        <v>44711</v>
       </c>
       <c r="B22">
-        <v>79.44999694824219</v>
+        <v>86.65000152587891</v>
       </c>
       <c r="C22">
-        <v>19.87861061096191</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="D22">
-        <v>13.52637577056885</v>
+        <v>17.65999984741211</v>
       </c>
       <c r="E22">
-        <v>9.640000343322754</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="F22">
-        <v>36.15999984741211</v>
+        <v>49.31000137329102</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="H22">
-        <v>4.659999847412109</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="I22">
-        <v>16.43000030517578</v>
+        <v>19.21999931335449</v>
       </c>
       <c r="J22">
-        <v>13.57999992370605</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="K22">
-        <v>22.79000091552734</v>
+        <v>22.42000007629395</v>
       </c>
       <c r="L22">
-        <v>2.380000114440918</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="M22">
-        <v>33.25</v>
+        <v>36.06999969482422</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>44741</v>
+        <v>44712</v>
       </c>
       <c r="B23">
-        <v>78.79000091552734</v>
+        <v>86.20999908447266</v>
       </c>
       <c r="C23">
-        <v>19.79026031494141</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="D23">
-        <v>13.32862091064453</v>
+        <v>17.8700008392334</v>
       </c>
       <c r="E23">
-        <v>9.460000038146973</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="F23">
-        <v>35.90000152587891</v>
+        <v>48.75</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="H23">
-        <v>4.650000095367432</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="I23">
-        <v>16.13999938964844</v>
+        <v>19.30999946594238</v>
       </c>
       <c r="J23">
-        <v>13.39999961853027</v>
+        <v>16.18000030517578</v>
       </c>
       <c r="K23">
-        <v>22.46999931335449</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="L23">
-        <v>2.410000085830688</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="M23">
-        <v>33.08000183105469</v>
+        <v>36.61999893188477</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>44742</v>
+        <v>44713</v>
       </c>
       <c r="B24">
-        <v>76.55999755859375</v>
+        <v>88.23999786376953</v>
       </c>
       <c r="C24">
-        <v>19.82952880859375</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="D24">
-        <v>12.90345001220703</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="E24">
-        <v>9.590000152587891</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="F24">
-        <v>35.15000152587891</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="H24">
-        <v>4.619999885559082</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="I24">
-        <v>16.01000022888184</v>
+        <v>18.65999984741211</v>
       </c>
       <c r="J24">
-        <v>13.06999969482422</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="K24">
-        <v>22.22999954223633</v>
+        <v>23.46999931335449</v>
       </c>
       <c r="L24">
-        <v>2.339999914169312</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="M24">
-        <v>33.38000106811523</v>
+        <v>36.68999862670898</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>44743</v>
+        <v>44714</v>
       </c>
       <c r="B25">
-        <v>75.09999847412109</v>
+        <v>89.90000152587891</v>
       </c>
       <c r="C25">
-        <v>19.81971168518066</v>
+        <v>22.75</v>
       </c>
       <c r="D25">
-        <v>13.19999980926514</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="E25">
-        <v>9.319999694824219</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="F25">
-        <v>35.59000015258789</v>
+        <v>48.56000137329102</v>
       </c>
       <c r="G25">
-        <v>8.279999732971191</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="H25">
-        <v>4.659999847412109</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="I25">
-        <v>16.3799991607666</v>
+        <v>19.11000061035156</v>
       </c>
       <c r="J25">
-        <v>12.97999954223633</v>
+        <v>16.64999961853027</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="L25">
-        <v>2.200000047683716</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="M25">
-        <v>33.15000152587891</v>
+        <v>36.72000122070312</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>44746</v>
+        <v>44715</v>
       </c>
       <c r="B26">
-        <v>74.66999816894531</v>
+        <v>88.45999908447266</v>
       </c>
       <c r="C26">
-        <v>19.81971168518066</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="D26">
-        <v>12.89999961853027</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="E26">
-        <v>9.090000152587891</v>
+        <v>11.32999992370605</v>
       </c>
       <c r="F26">
-        <v>36.27999877929688</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="G26">
-        <v>8.289999961853027</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="H26">
-        <v>4.539999961853027</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="I26">
-        <v>16.45000076293945</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="J26">
-        <v>12.42000007629395</v>
+        <v>15.72000026702881</v>
       </c>
       <c r="K26">
-        <v>21.5</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="L26">
-        <v>2.130000114440918</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="M26">
-        <v>33.04000091552734</v>
+        <v>36.20999908447266</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>44747</v>
+        <v>44718</v>
       </c>
       <c r="B27">
-        <v>74.30000305175781</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="C27">
-        <v>19.43686294555664</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="D27">
-        <v>12.6899995803833</v>
+        <v>16.51000022888184</v>
       </c>
       <c r="E27">
-        <v>9.430000305175781</v>
+        <v>10.98999977111816</v>
       </c>
       <c r="F27">
-        <v>33.58000183105469</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="G27">
-        <v>7.980000019073486</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="H27">
-        <v>4.53000020980835</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="I27">
-        <v>16.48999977111816</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="J27">
-        <v>12.60999965667725</v>
+        <v>15.17000007629395</v>
       </c>
       <c r="K27">
-        <v>20.86000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="L27">
-        <v>2.380000114440918</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="M27">
-        <v>32.86000061035156</v>
+        <v>35.7599983215332</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>44748</v>
+        <v>44719</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="C28">
-        <v>19.64301300048828</v>
+        <v>22.22999954223633</v>
       </c>
       <c r="D28">
-        <v>12.85000038146973</v>
+        <v>16.54999923706055</v>
       </c>
       <c r="E28">
-        <v>9.899999618530273</v>
+        <v>10.76000022888184</v>
       </c>
       <c r="F28">
-        <v>31.70000076293945</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="G28">
-        <v>8.159999847412109</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="H28">
-        <v>4.539999961853027</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>16.42000007629395</v>
+        <v>18.45999908447266</v>
       </c>
       <c r="J28">
-        <v>13.80000019073486</v>
+        <v>15.18000030517578</v>
       </c>
       <c r="K28">
-        <v>20.85000038146973</v>
+        <v>23.21999931335449</v>
       </c>
       <c r="L28">
-        <v>2.5</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="M28">
-        <v>32.65000152587891</v>
+        <v>35.5099983215332</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
-        <v>44749</v>
+        <v>44720</v>
       </c>
       <c r="B29">
-        <v>77.18000030517578</v>
+        <v>87.5</v>
       </c>
       <c r="C29">
-        <v>19.5350284576416</v>
+        <v>21.94000053405762</v>
       </c>
       <c r="D29">
-        <v>13.14000034332275</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="E29">
-        <v>10.17000007629395</v>
+        <v>10.67000007629395</v>
       </c>
       <c r="F29">
-        <v>31.89999961853027</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="G29">
-        <v>8.159999847412109</v>
+        <v>8.810000419616699</v>
       </c>
       <c r="H29">
-        <v>4.559999942779541</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="I29">
-        <v>16.6299991607666</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="J29">
-        <v>15.25</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="K29">
-        <v>21.14999961853027</v>
+        <v>23.43000030517578</v>
       </c>
       <c r="L29">
-        <v>2.559999942779541</v>
+        <v>3.220000028610229</v>
       </c>
       <c r="M29">
-        <v>33.13000106811523</v>
+        <v>35.18999862670898</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>44750</v>
+        <v>44721</v>
       </c>
       <c r="B30">
-        <v>75.40000152587891</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="C30">
-        <v>19.34851264953613</v>
+        <v>21.79000091552734</v>
       </c>
       <c r="D30">
-        <v>12.88000011444092</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="E30">
-        <v>10.05000019073486</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="F30">
-        <v>32.90000152587891</v>
+        <v>46.02000045776367</v>
       </c>
       <c r="G30">
-        <v>8.109999656677246</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="H30">
-        <v>4.510000228881836</v>
+        <v>4.980000019073486</v>
       </c>
       <c r="I30">
-        <v>16.80999946594238</v>
+        <v>18.29000091552734</v>
       </c>
       <c r="J30">
-        <v>14.90999984741211</v>
+        <v>14.98999977111816</v>
       </c>
       <c r="K30">
-        <v>21.04999923706055</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="L30">
-        <v>2.619999885559082</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="M30">
-        <v>33.45000076293945</v>
+        <v>35.13999938964844</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2">
-        <v>44753</v>
+        <v>44722</v>
       </c>
       <c r="B31">
-        <v>72.83000183105469</v>
+        <v>84.55999755859375</v>
       </c>
       <c r="C31">
-        <v>19.15218162536621</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="D31">
-        <v>12.01000022888184</v>
+        <v>15.51000022888184</v>
       </c>
       <c r="E31">
-        <v>10.0600004196167</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F31">
-        <v>32.36999893188477</v>
+        <v>44.56999969482422</v>
       </c>
       <c r="G31">
-        <v>7.980000019073486</v>
+        <v>8.630000114440918</v>
       </c>
       <c r="H31">
-        <v>4.360000133514404</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="I31">
-        <v>16.20999908447266</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="J31">
-        <v>14.27999973297119</v>
+        <v>14.25</v>
       </c>
       <c r="K31">
-        <v>20.78000068664551</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="L31">
-        <v>2.630000114440918</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="M31">
-        <v>32.90000152587891</v>
+        <v>34.54999923706055</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>44754</v>
+        <v>44725</v>
       </c>
       <c r="B32">
-        <v>73.05000305175781</v>
+        <v>81.87999725341797</v>
       </c>
       <c r="C32">
-        <v>19.26016616821289</v>
+        <v>21.34000015258789</v>
       </c>
       <c r="D32">
-        <v>11.89000034332275</v>
+        <v>14.52000045776367</v>
       </c>
       <c r="E32">
-        <v>10.10000038146973</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="F32">
-        <v>30.28000068664551</v>
+        <v>42.65999984741211</v>
       </c>
       <c r="G32">
-        <v>7.900000095367432</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="H32">
-        <v>4.349999904632568</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="I32">
-        <v>16.45000076293945</v>
+        <v>17.27000045776367</v>
       </c>
       <c r="J32">
-        <v>14.38000011444092</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="K32">
-        <v>20.85000038146973</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="L32">
-        <v>2.930000066757202</v>
+        <v>2.670000076293945</v>
       </c>
       <c r="M32">
-        <v>33.0099983215332</v>
+        <v>33.7599983215332</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>44755</v>
+        <v>44726</v>
       </c>
       <c r="B33">
-        <v>72.80000305175781</v>
+        <v>81.72000122070312</v>
       </c>
       <c r="C33">
-        <v>18.69080352783203</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="D33">
-        <v>11.89000034332275</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="E33">
-        <v>10.05000019073486</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="F33">
-        <v>28.60000038146973</v>
+        <v>40.84000015258789</v>
       </c>
       <c r="G33">
-        <v>7.849999904632568</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="H33">
-        <v>4.349999904632568</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="I33">
-        <v>16.42000007629395</v>
+        <v>17.05999946594238</v>
       </c>
       <c r="J33">
-        <v>13.89000034332275</v>
+        <v>13.47000026702881</v>
       </c>
       <c r="K33">
-        <v>20.82999992370605</v>
+        <v>21.18000030517578</v>
       </c>
       <c r="L33">
-        <v>2.829999923706055</v>
+        <v>2.539999961853027</v>
       </c>
       <c r="M33">
-        <v>32.65000152587891</v>
+        <v>33.52000045776367</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2">
-        <v>44756</v>
+        <v>44727</v>
       </c>
       <c r="B34">
-        <v>67.94999694824219</v>
+        <v>81.66999816894531</v>
       </c>
       <c r="C34">
-        <v>18.44538879394531</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="D34">
-        <v>12.19999980926514</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="E34">
-        <v>10.10000038146973</v>
+        <v>9.770000457763672</v>
       </c>
       <c r="F34">
-        <v>29.11000061035156</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="G34">
-        <v>7.96999979019165</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="H34">
-        <v>4.300000190734863</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="I34">
-        <v>16.04000091552734</v>
+        <v>17.54000091552734</v>
       </c>
       <c r="J34">
-        <v>14.14999961853027</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="K34">
-        <v>20.60000038146973</v>
+        <v>21.75</v>
       </c>
       <c r="L34">
-        <v>2.910000085830688</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="M34">
-        <v>32.61000061035156</v>
+        <v>34.04999923706055</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2">
-        <v>44757</v>
+        <v>44729</v>
       </c>
       <c r="B35">
-        <v>68.37000274658203</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C35">
-        <v>18.16070556640625</v>
+        <v>20.36000061035156</v>
       </c>
       <c r="D35">
-        <v>12.22999954223633</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>10.19999980926514</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="F35">
-        <v>28.73999977111816</v>
+        <v>36.75</v>
       </c>
       <c r="G35">
-        <v>8.220000267028809</v>
+        <v>8.560000419616699</v>
       </c>
       <c r="H35">
-        <v>4.429999828338623</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="I35">
-        <v>16.04999923706055</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="J35">
-        <v>14.72000026702881</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="K35">
-        <v>21.3799991607666</v>
+        <v>21.45000076293945</v>
       </c>
       <c r="L35">
-        <v>2.779999971389771</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="M35">
-        <v>33.27999877929688</v>
+        <v>34.13000106811523</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>44760</v>
+        <v>44732</v>
       </c>
       <c r="B36">
-        <v>68.73000335693359</v>
+        <v>75.5</v>
       </c>
       <c r="C36">
-        <v>18.08217239379883</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="D36">
-        <v>12.11999988555908</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="E36">
-        <v>10.46000003814697</v>
+        <v>9.489999771118164</v>
       </c>
       <c r="F36">
-        <v>29.38999938964844</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="G36">
-        <v>8.310000419616699</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="H36">
-        <v>4.389999866485596</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="I36">
-        <v>16.06999969482422</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="J36">
-        <v>14.71000003814697</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="K36">
-        <v>21.39999961853027</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="L36">
-        <v>2.769999980926514</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="M36">
-        <v>33.75</v>
+        <v>34.38999938964844</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>44761</v>
+        <v>44733</v>
       </c>
       <c r="B37">
-        <v>68.87999725341797</v>
+        <v>76</v>
       </c>
       <c r="C37">
-        <v>18.45520210266113</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="D37">
-        <v>12.27000045776367</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="E37">
-        <v>10.10999965667725</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="F37">
-        <v>30.44000053405762</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="G37">
-        <v>8.409999847412109</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="H37">
-        <v>4.460000038146973</v>
+        <v>4.570000171661377</v>
       </c>
       <c r="I37">
-        <v>16.13999938964844</v>
+        <v>16.78000068664551</v>
       </c>
       <c r="J37">
-        <v>14.11999988555908</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="K37">
-        <v>21.78000068664551</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="L37">
-        <v>2.789999961853027</v>
+        <v>2.509999990463257</v>
       </c>
       <c r="M37">
-        <v>34.65999984741211</v>
+        <v>32.97999954223633</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2">
-        <v>44762</v>
+        <v>44734</v>
       </c>
       <c r="B38">
-        <v>67.38999938964844</v>
+        <v>75.34999847412109</v>
       </c>
       <c r="C38">
-        <v>18.72025108337402</v>
+        <v>20.02000045776367</v>
       </c>
       <c r="D38">
-        <v>12.5</v>
+        <v>13.9399995803833</v>
       </c>
       <c r="E38">
-        <v>10.17000007629395</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="F38">
-        <v>31.63999938964844</v>
+        <v>33.97000122070312</v>
       </c>
       <c r="G38">
-        <v>8.670000076293945</v>
+        <v>8.350000381469727</v>
       </c>
       <c r="H38">
-        <v>4.570000171661377</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="I38">
-        <v>16.3799991607666</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="J38">
-        <v>14.28999996185303</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="K38">
-        <v>22</v>
+        <v>21.29000091552734</v>
       </c>
       <c r="L38">
-        <v>3.069999933242798</v>
+        <v>2.440000057220459</v>
       </c>
       <c r="M38">
-        <v>34.66999816894531</v>
+        <v>32.86000061035156</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>44763</v>
+        <v>44735</v>
       </c>
       <c r="B39">
-        <v>68.56999969482422</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="C39">
-        <v>18.12143898010254</v>
+        <v>19.52000045776367</v>
       </c>
       <c r="D39">
-        <v>12.93000030517578</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E39">
-        <v>10.35000038146973</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="F39">
-        <v>30.45000076293945</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="G39">
-        <v>8.689999580383301</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="H39">
-        <v>4.71999979019165</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="I39">
-        <v>16.57999992370605</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="J39">
-        <v>14.09000015258789</v>
+        <v>13.75</v>
       </c>
       <c r="K39">
-        <v>22.29999923706055</v>
+        <v>21.5</v>
       </c>
       <c r="L39">
-        <v>3.009999990463257</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="M39">
-        <v>34.90999984741211</v>
+        <v>32.65000152587891</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2">
-        <v>44764</v>
+        <v>44736</v>
       </c>
       <c r="B40">
-        <v>69.20999908447266</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="C40">
-        <v>18.55336952209473</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="D40">
-        <v>12.77000045776367</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="E40">
-        <v>10.30000019073486</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="F40">
-        <v>29.43000030517578</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="G40">
-        <v>8.829999923706055</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="H40">
         <v>4.599999904632568</v>
       </c>
       <c r="I40">
-        <v>16.68000030517578</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="J40">
-        <v>13.89999961853027</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="K40">
-        <v>22.09000015258789</v>
+        <v>21.52000045776367</v>
       </c>
       <c r="L40">
-        <v>2.859999895095825</v>
+        <v>2.470000028610229</v>
       </c>
       <c r="M40">
-        <v>34.66999816894531</v>
+        <v>32.45999908447266</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2">
-        <v>44767</v>
+        <v>44739</v>
       </c>
       <c r="B41">
-        <v>70.48999786376953</v>
+        <v>78.05000305175781</v>
       </c>
       <c r="C41">
-        <v>18.08217239379883</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="D41">
-        <v>12.77999973297119</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E41">
-        <v>10.32999992370605</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="F41">
-        <v>30.26000022888184</v>
+        <v>36.38000106811523</v>
       </c>
       <c r="G41">
-        <v>8.810000419616699</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="H41">
-        <v>4.460000038146973</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="I41">
-        <v>16.63999938964844</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="J41">
-        <v>13.53999996185303</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="K41">
-        <v>22.14999961853027</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="L41">
-        <v>2.789999961853027</v>
+        <v>2.430000066757202</v>
       </c>
       <c r="M41">
-        <v>35.20000076293945</v>
+        <v>33.13000106811523</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2">
-        <v>44768</v>
+        <v>44740</v>
       </c>
       <c r="B42">
-        <v>70.36000061035156</v>
+        <v>79.44999694824219</v>
       </c>
       <c r="C42">
-        <v>18.11162376403809</v>
+        <v>20.25</v>
       </c>
       <c r="D42">
-        <v>12.39999961853027</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="E42">
-        <v>10.26000022888184</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="F42">
-        <v>29.94000053405762</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="G42">
-        <v>8.819999694824219</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>4.460000038146973</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="I42">
-        <v>16.3700008392334</v>
+        <v>16.43000030517578</v>
       </c>
       <c r="J42">
-        <v>12.90999984741211</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="K42">
-        <v>21.79000091552734</v>
+        <v>22.79000091552734</v>
       </c>
       <c r="L42">
-        <v>2.609999895095825</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="M42">
-        <v>35.31999969482422</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2">
-        <v>44769</v>
+        <v>44741</v>
       </c>
       <c r="B43">
-        <v>70.51999664306641</v>
+        <v>78.79000091552734</v>
       </c>
       <c r="C43">
-        <v>19.10309791564941</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="D43">
-        <v>12.77000045776367</v>
+        <v>13.47999954223633</v>
       </c>
       <c r="E43">
-        <v>10.47000026702881</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F43">
-        <v>30.67000007629395</v>
+        <v>35.90000152587891</v>
       </c>
       <c r="G43">
-        <v>9.140000343322754</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>4.619999885559082</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="I43">
-        <v>16.8700008392334</v>
+        <v>16.13999938964844</v>
       </c>
       <c r="J43">
-        <v>13.84000015258789</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="K43">
-        <v>22.27000045776367</v>
+        <v>22.46999931335449</v>
       </c>
       <c r="L43">
-        <v>2.700000047683716</v>
+        <v>2.410000085830688</v>
       </c>
       <c r="M43">
-        <v>35.54999923706055</v>
+        <v>33.08000183105469</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2">
-        <v>44770</v>
+        <v>44742</v>
       </c>
       <c r="B44">
-        <v>70.69000244140625</v>
+        <v>76.55999755859375</v>
       </c>
       <c r="C44">
-        <v>18.87731742858887</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="D44">
-        <v>12.89999961853027</v>
+        <v>13.05000019073486</v>
       </c>
       <c r="E44">
-        <v>11.0600004196167</v>
+        <v>9.590000152587891</v>
       </c>
       <c r="F44">
-        <v>31.82999992370605</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="G44">
-        <v>9.119999885559082</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>4.880000114440918</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="I44">
-        <v>17.06999969482422</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="J44">
-        <v>13.52999973297119</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="K44">
-        <v>22.38999938964844</v>
+        <v>22.22999954223633</v>
       </c>
       <c r="L44">
-        <v>2.720000028610229</v>
+        <v>2.339999914169312</v>
       </c>
       <c r="M44">
-        <v>36.20999908447266</v>
+        <v>33.38000106811523</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2">
-        <v>44771</v>
+        <v>44743</v>
       </c>
       <c r="B45">
-        <v>69.75</v>
+        <v>75.09999847412109</v>
       </c>
       <c r="C45">
-        <v>19.56447982788086</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="D45">
-        <v>12.69999980926514</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="E45">
-        <v>10.97999954223633</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="F45">
-        <v>34.02000045776367</v>
+        <v>35.59000015258789</v>
       </c>
       <c r="G45">
-        <v>9.180000305175781</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="H45">
-        <v>4.860000133514404</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="I45">
-        <v>16.8700008392334</v>
+        <v>16.3799991607666</v>
       </c>
       <c r="J45">
-        <v>13.25</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="K45">
-        <v>22.77000045776367</v>
+        <v>22</v>
       </c>
       <c r="L45">
-        <v>2.579999923706055</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="M45">
-        <v>35.97000122070312</v>
+        <v>33.15000152587891</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2">
-        <v>44774</v>
+        <v>44746</v>
       </c>
       <c r="B46">
-        <v>68.08000183105469</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="C46">
-        <v>19.40741348266602</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="D46">
-        <v>13.01000022888184</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="E46">
-        <v>11.5</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="F46">
-        <v>32.40000152587891</v>
+        <v>36.27999877929688</v>
       </c>
       <c r="G46">
-        <v>9.159999847412109</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="H46">
-        <v>4.889999866485596</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="I46">
-        <v>17.13999938964844</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="J46">
-        <v>13.4399995803833</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="K46">
-        <v>22.69000053405762</v>
+        <v>21.5</v>
       </c>
       <c r="L46">
-        <v>2.720000028610229</v>
+        <v>2.130000114440918</v>
       </c>
       <c r="M46">
-        <v>35.68000030517578</v>
+        <v>33.04000091552734</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B47">
+        <v>74.30000305175781</v>
+      </c>
+      <c r="C47">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="D47">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="E47">
+        <v>9.430000305175781</v>
+      </c>
+      <c r="F47">
+        <v>33.58000183105469</v>
+      </c>
+      <c r="G47">
+        <v>7.980000019073486</v>
+      </c>
+      <c r="H47">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="I47">
+        <v>16.48999977111816</v>
+      </c>
+      <c r="J47">
+        <v>12.60999965667725</v>
+      </c>
+      <c r="K47">
+        <v>20.86000061035156</v>
+      </c>
+      <c r="L47">
+        <v>2.380000114440918</v>
+      </c>
+      <c r="M47">
+        <v>32.86000061035156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>20.01000022888184</v>
+      </c>
+      <c r="D48">
+        <v>12.85000038146973</v>
+      </c>
+      <c r="E48">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="F48">
+        <v>31.70000076293945</v>
+      </c>
+      <c r="G48">
+        <v>8.159999847412109</v>
+      </c>
+      <c r="H48">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="I48">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="J48">
+        <v>13.80000019073486</v>
+      </c>
+      <c r="K48">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="L48">
+        <v>2.5</v>
+      </c>
+      <c r="M48">
+        <v>32.65000152587891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B49">
+        <v>77.18000030517578</v>
+      </c>
+      <c r="C49">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="D49">
+        <v>13.14000034332275</v>
+      </c>
+      <c r="E49">
+        <v>10.17000007629395</v>
+      </c>
+      <c r="F49">
+        <v>31.89999961853027</v>
+      </c>
+      <c r="G49">
+        <v>8.159999847412109</v>
+      </c>
+      <c r="H49">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="I49">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="J49">
+        <v>15.25</v>
+      </c>
+      <c r="K49">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="L49">
+        <v>2.559999942779541</v>
+      </c>
+      <c r="M49">
+        <v>33.13000106811523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B50">
+        <v>75.40000152587891</v>
+      </c>
+      <c r="C50">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="D50">
+        <v>12.88000011444092</v>
+      </c>
+      <c r="E50">
+        <v>10.05000019073486</v>
+      </c>
+      <c r="F50">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="G50">
+        <v>8.109999656677246</v>
+      </c>
+      <c r="H50">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="I50">
+        <v>16.80999946594238</v>
+      </c>
+      <c r="J50">
+        <v>14.90999984741211</v>
+      </c>
+      <c r="K50">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="L50">
+        <v>2.619999885559082</v>
+      </c>
+      <c r="M50">
+        <v>33.45000076293945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B51">
+        <v>72.83000183105469</v>
+      </c>
+      <c r="C51">
+        <v>19.51000022888184</v>
+      </c>
+      <c r="D51">
+        <v>12.01000022888184</v>
+      </c>
+      <c r="E51">
+        <v>10.0600004196167</v>
+      </c>
+      <c r="F51">
+        <v>32.36999893188477</v>
+      </c>
+      <c r="G51">
+        <v>7.980000019073486</v>
+      </c>
+      <c r="H51">
+        <v>4.360000133514404</v>
+      </c>
+      <c r="I51">
+        <v>16.20999908447266</v>
+      </c>
+      <c r="J51">
+        <v>14.27999973297119</v>
+      </c>
+      <c r="K51">
+        <v>20.78000068664551</v>
+      </c>
+      <c r="L51">
+        <v>2.630000114440918</v>
+      </c>
+      <c r="M51">
+        <v>32.90000152587891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B52">
+        <v>73.05000305175781</v>
+      </c>
+      <c r="C52">
+        <v>19.6200008392334</v>
+      </c>
+      <c r="D52">
+        <v>11.89000034332275</v>
+      </c>
+      <c r="E52">
+        <v>10.10000038146973</v>
+      </c>
+      <c r="F52">
+        <v>30.28000068664551</v>
+      </c>
+      <c r="G52">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="H52">
+        <v>4.349999904632568</v>
+      </c>
+      <c r="I52">
+        <v>16.45000076293945</v>
+      </c>
+      <c r="J52">
+        <v>14.38000011444092</v>
+      </c>
+      <c r="K52">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="L52">
+        <v>2.930000066757202</v>
+      </c>
+      <c r="M52">
+        <v>33.0099983215332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B53">
+        <v>72.80000305175781</v>
+      </c>
+      <c r="C53">
+        <v>19.04000091552734</v>
+      </c>
+      <c r="D53">
+        <v>11.89000034332275</v>
+      </c>
+      <c r="E53">
+        <v>10.05000019073486</v>
+      </c>
+      <c r="F53">
+        <v>28.60000038146973</v>
+      </c>
+      <c r="G53">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="H53">
+        <v>4.349999904632568</v>
+      </c>
+      <c r="I53">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="J53">
+        <v>13.89000034332275</v>
+      </c>
+      <c r="K53">
+        <v>20.82999992370605</v>
+      </c>
+      <c r="L53">
+        <v>2.829999923706055</v>
+      </c>
+      <c r="M53">
+        <v>32.65000152587891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B54">
+        <v>67.94999694824219</v>
+      </c>
+      <c r="C54">
+        <v>18.79000091552734</v>
+      </c>
+      <c r="D54">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="E54">
+        <v>10.10000038146973</v>
+      </c>
+      <c r="F54">
+        <v>29.11000061035156</v>
+      </c>
+      <c r="G54">
+        <v>7.96999979019165</v>
+      </c>
+      <c r="H54">
+        <v>4.300000190734863</v>
+      </c>
+      <c r="I54">
+        <v>16.04000091552734</v>
+      </c>
+      <c r="J54">
+        <v>14.14999961853027</v>
+      </c>
+      <c r="K54">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="L54">
+        <v>2.910000085830688</v>
+      </c>
+      <c r="M54">
+        <v>32.61000061035156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B55">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="C55">
+        <v>18.5</v>
+      </c>
+      <c r="D55">
+        <v>12.22999954223633</v>
+      </c>
+      <c r="E55">
+        <v>10.19999980926514</v>
+      </c>
+      <c r="F55">
+        <v>28.73999977111816</v>
+      </c>
+      <c r="G55">
+        <v>8.220000267028809</v>
+      </c>
+      <c r="H55">
+        <v>4.429999828338623</v>
+      </c>
+      <c r="I55">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="J55">
+        <v>14.72000026702881</v>
+      </c>
+      <c r="K55">
+        <v>21.3799991607666</v>
+      </c>
+      <c r="L55">
+        <v>2.779999971389771</v>
+      </c>
+      <c r="M55">
+        <v>33.27999877929688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B56">
+        <v>68.73000335693359</v>
+      </c>
+      <c r="C56">
+        <v>18.42000007629395</v>
+      </c>
+      <c r="D56">
+        <v>12.11999988555908</v>
+      </c>
+      <c r="E56">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="F56">
+        <v>29.38999938964844</v>
+      </c>
+      <c r="G56">
+        <v>8.310000419616699</v>
+      </c>
+      <c r="H56">
+        <v>4.389999866485596</v>
+      </c>
+      <c r="I56">
+        <v>16.06999969482422</v>
+      </c>
+      <c r="J56">
+        <v>14.71000003814697</v>
+      </c>
+      <c r="K56">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="L56">
+        <v>2.769999980926514</v>
+      </c>
+      <c r="M56">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B57">
+        <v>68.87999725341797</v>
+      </c>
+      <c r="C57">
+        <v>18.79999923706055</v>
+      </c>
+      <c r="D57">
+        <v>12.27000045776367</v>
+      </c>
+      <c r="E57">
+        <v>10.10999965667725</v>
+      </c>
+      <c r="F57">
+        <v>30.44000053405762</v>
+      </c>
+      <c r="G57">
+        <v>8.409999847412109</v>
+      </c>
+      <c r="H57">
+        <v>4.460000038146973</v>
+      </c>
+      <c r="I57">
+        <v>16.13999938964844</v>
+      </c>
+      <c r="J57">
+        <v>14.11999988555908</v>
+      </c>
+      <c r="K57">
+        <v>21.78000068664551</v>
+      </c>
+      <c r="L57">
+        <v>2.789999961853027</v>
+      </c>
+      <c r="M57">
+        <v>34.65999984741211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B58">
+        <v>67.38999938964844</v>
+      </c>
+      <c r="C58">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="D58">
+        <v>12.5</v>
+      </c>
+      <c r="E58">
+        <v>10.17000007629395</v>
+      </c>
+      <c r="F58">
+        <v>31.63999938964844</v>
+      </c>
+      <c r="G58">
+        <v>8.670000076293945</v>
+      </c>
+      <c r="H58">
+        <v>4.570000171661377</v>
+      </c>
+      <c r="I58">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="J58">
+        <v>14.28999996185303</v>
+      </c>
+      <c r="K58">
+        <v>22</v>
+      </c>
+      <c r="L58">
+        <v>3.069999933242798</v>
+      </c>
+      <c r="M58">
+        <v>34.66999816894531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B59">
+        <v>68.56999969482422</v>
+      </c>
+      <c r="C59">
+        <v>18.45999908447266</v>
+      </c>
+      <c r="D59">
+        <v>12.93000030517578</v>
+      </c>
+      <c r="E59">
+        <v>10.35000038146973</v>
+      </c>
+      <c r="F59">
+        <v>30.45000076293945</v>
+      </c>
+      <c r="G59">
+        <v>8.689999580383301</v>
+      </c>
+      <c r="H59">
+        <v>4.71999979019165</v>
+      </c>
+      <c r="I59">
+        <v>16.57999992370605</v>
+      </c>
+      <c r="J59">
+        <v>14.09000015258789</v>
+      </c>
+      <c r="K59">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="L59">
+        <v>3.009999990463257</v>
+      </c>
+      <c r="M59">
+        <v>34.90999984741211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B60">
+        <v>69.20999908447266</v>
+      </c>
+      <c r="C60">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="D60">
+        <v>12.77000045776367</v>
+      </c>
+      <c r="E60">
+        <v>10.30000019073486</v>
+      </c>
+      <c r="F60">
+        <v>29.43000030517578</v>
+      </c>
+      <c r="G60">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="H60">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="I60">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="J60">
+        <v>13.89999961853027</v>
+      </c>
+      <c r="K60">
+        <v>22.09000015258789</v>
+      </c>
+      <c r="L60">
+        <v>2.859999895095825</v>
+      </c>
+      <c r="M60">
+        <v>34.66999816894531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B61">
+        <v>70.48999786376953</v>
+      </c>
+      <c r="C61">
+        <v>18.42000007629395</v>
+      </c>
+      <c r="D61">
+        <v>12.77999973297119</v>
+      </c>
+      <c r="E61">
+        <v>10.32999992370605</v>
+      </c>
+      <c r="F61">
+        <v>30.26000022888184</v>
+      </c>
+      <c r="G61">
+        <v>8.810000419616699</v>
+      </c>
+      <c r="H61">
+        <v>4.460000038146973</v>
+      </c>
+      <c r="I61">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="J61">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="K61">
+        <v>22.14999961853027</v>
+      </c>
+      <c r="L61">
+        <v>2.789999961853027</v>
+      </c>
+      <c r="M61">
+        <v>35.20000076293945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B62">
+        <v>70.36000061035156</v>
+      </c>
+      <c r="C62">
+        <v>18.45000076293945</v>
+      </c>
+      <c r="D62">
+        <v>12.39999961853027</v>
+      </c>
+      <c r="E62">
+        <v>10.26000022888184</v>
+      </c>
+      <c r="F62">
+        <v>29.94000053405762</v>
+      </c>
+      <c r="G62">
+        <v>8.819999694824219</v>
+      </c>
+      <c r="H62">
+        <v>4.460000038146973</v>
+      </c>
+      <c r="I62">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="J62">
+        <v>12.90999984741211</v>
+      </c>
+      <c r="K62">
+        <v>21.79000091552734</v>
+      </c>
+      <c r="L62">
+        <v>2.609999895095825</v>
+      </c>
+      <c r="M62">
+        <v>35.31999969482422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B63">
+        <v>70.51999664306641</v>
+      </c>
+      <c r="C63">
+        <v>19.45999908447266</v>
+      </c>
+      <c r="D63">
+        <v>12.77000045776367</v>
+      </c>
+      <c r="E63">
+        <v>10.47000026702881</v>
+      </c>
+      <c r="F63">
+        <v>30.67000007629395</v>
+      </c>
+      <c r="G63">
+        <v>9.140000343322754</v>
+      </c>
+      <c r="H63">
+        <v>4.619999885559082</v>
+      </c>
+      <c r="I63">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="J63">
+        <v>13.84000015258789</v>
+      </c>
+      <c r="K63">
+        <v>22.27000045776367</v>
+      </c>
+      <c r="L63">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="M63">
+        <v>35.54999923706055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B64">
+        <v>70.69000244140625</v>
+      </c>
+      <c r="C64">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="D64">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="E64">
+        <v>11.0600004196167</v>
+      </c>
+      <c r="F64">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="G64">
+        <v>9.119999885559082</v>
+      </c>
+      <c r="H64">
+        <v>4.880000114440918</v>
+      </c>
+      <c r="I64">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="J64">
+        <v>13.52999973297119</v>
+      </c>
+      <c r="K64">
+        <v>22.38999938964844</v>
+      </c>
+      <c r="L64">
+        <v>2.720000028610229</v>
+      </c>
+      <c r="M64">
+        <v>36.20999908447266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B65">
+        <v>69.75</v>
+      </c>
+      <c r="C65">
+        <v>19.93000030517578</v>
+      </c>
+      <c r="D65">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="E65">
+        <v>10.97999954223633</v>
+      </c>
+      <c r="F65">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="G65">
+        <v>9.180000305175781</v>
+      </c>
+      <c r="H65">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="I65">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="J65">
+        <v>13.25</v>
+      </c>
+      <c r="K65">
+        <v>22.77000045776367</v>
+      </c>
+      <c r="L65">
+        <v>2.579999923706055</v>
+      </c>
+      <c r="M65">
+        <v>35.97000122070312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B66">
+        <v>68.08000183105469</v>
+      </c>
+      <c r="C66">
+        <v>19.77000045776367</v>
+      </c>
+      <c r="D66">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="E66">
+        <v>11.5</v>
+      </c>
+      <c r="F66">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="G66">
+        <v>9.159999847412109</v>
+      </c>
+      <c r="H66">
+        <v>4.889999866485596</v>
+      </c>
+      <c r="I66">
+        <v>17.13999938964844</v>
+      </c>
+      <c r="J66">
+        <v>13.4399995803833</v>
+      </c>
+      <c r="K66">
+        <v>22.69000053405762</v>
+      </c>
+      <c r="L66">
+        <v>2.720000028610229</v>
+      </c>
+      <c r="M66">
+        <v>35.68000030517578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2">
         <v>44775</v>
       </c>
-      <c r="B47">
-        <v>69.15000152587891</v>
-      </c>
-      <c r="D47">
-        <v>13.01000022888184</v>
-      </c>
-      <c r="E47">
-        <v>11.55000019073486</v>
-      </c>
-      <c r="F47">
-        <v>32.40000152587891</v>
-      </c>
-      <c r="G47">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="H47">
-        <v>4.920000076293945</v>
-      </c>
-      <c r="I47">
-        <v>17.04000091552734</v>
-      </c>
-      <c r="J47">
-        <v>13.27999973297119</v>
-      </c>
-      <c r="K47">
-        <v>23.1200008392334</v>
-      </c>
-      <c r="L47">
-        <v>2.680000066757202</v>
-      </c>
-      <c r="M47">
-        <v>36.33000183105469</v>
+      <c r="B67">
+        <v>70.04000091552734</v>
+      </c>
+      <c r="D67">
+        <v>13.09000015258789</v>
+      </c>
+      <c r="E67">
+        <v>11.56999969482422</v>
+      </c>
+      <c r="F67">
+        <v>32.79000091552734</v>
+      </c>
+      <c r="G67">
+        <v>9.149999618530273</v>
+      </c>
+      <c r="H67">
+        <v>4.880000114440918</v>
+      </c>
+      <c r="I67">
+        <v>17.01000022888184</v>
+      </c>
+      <c r="J67">
+        <v>13.21000003814697</v>
+      </c>
+      <c r="K67">
+        <v>23.04000091552734</v>
+      </c>
+      <c r="L67">
+        <v>2.710000038146973</v>
+      </c>
+      <c r="M67">
+        <v>36.02000045776367</v>
       </c>
     </row>
   </sheetData>
